--- a/output/StructureDefinition-rv-creatinine-mass-concentration.xlsx
+++ b/output/StructureDefinition-rv-creatinine-mass-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-creatinine-mass-concentration.xlsx
+++ b/output/StructureDefinition-rv-creatinine-mass-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9517,7 +9517,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-rv-creatinine-mass-concentration.xlsx
+++ b/output/StructureDefinition-rv-creatinine-mass-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -988,7 +988,7 @@
     <t>Observation.category:Blood.coding.system</t>
   </si>
   <si>
-    <t>https://fhir.loinc.org</t>
+    <t>https://loinc.org</t>
   </si>
   <si>
     <t>Observation.category:Blood.coding.version</t>

--- a/output/StructureDefinition-rv-creatinine-mass-concentration.xlsx
+++ b/output/StructureDefinition-rv-creatinine-mass-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-creatinine-mass-concentration.xlsx
+++ b/output/StructureDefinition-rv-creatinine-mass-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-creatinine-mass-concentration.xlsx
+++ b/output/StructureDefinition-rv-creatinine-mass-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
